--- a/4_styles_and_formatting/4.2_fill-colors/fill_styles.xlsx
+++ b/4_styles_and_formatting/4.2_fill-colors/fill_styles.xlsx
@@ -40,7 +40,7 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="lightUp">
+      <patternFill patternType="mediumGray">
         <fgColor rgb="000000FF"/>
         <bgColor rgb="00FFFFFF"/>
       </patternFill>
